--- a/Producto/Web/Casos de prueba/5.xlsx
+++ b/Producto/Web/Casos de prueba/5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950"/>
@@ -12,7 +12,7 @@
     <sheet name="Pasos" sheetId="2" r:id="rId3"/>
     <sheet name="Control de cambios" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -82,12 +82,6 @@
     <t>creacion</t>
   </si>
   <si>
-    <t>&lt;PlayaNombre1&gt; es el nombre de la playa &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;PlayaNombre1&gt; en el campo nombre de playa</t>
-  </si>
-  <si>
     <t>Presiono el boton buscar</t>
   </si>
   <si>
@@ -116,13 +110,19 @@
   </si>
   <si>
     <t>Marcos Barrera [autor]</t>
+  </si>
+  <si>
+    <t>"CPA_Playa1" es el nombre de la playa &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,7 +382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -417,7 +416,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,44 +591,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -638,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -647,7 +645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -655,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -673,20 +671,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -697,28 +695,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -730,21 +728,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -758,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -770,37 +768,37 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="26.25" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="25.5">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -813,14 +811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -828,7 +826,7 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -845,7 +843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="38.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -856,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>20</v>

--- a/Producto/Web/Casos de prueba/5.xlsx
+++ b/Producto/Web/Casos de prueba/5.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Pasos" sheetId="2" r:id="rId3"/>
     <sheet name="Control de cambios" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>creacion</t>
   </si>
   <si>
-    <t>Presiono el boton buscar</t>
-  </si>
-  <si>
     <t>Aparece una tabla que contiene la playa de estacionamiento &lt;Playa1&gt;</t>
   </si>
   <si>
@@ -115,14 +112,32 @@
     <t>"CPA_Playa1" es el nombre de la playa &lt;Playa1&gt;</t>
   </si>
   <si>
-    <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
+    <t>&lt;playa1&gt; se encuentra ubicada en &lt;ciudad1&gt;</t>
+  </si>
+  <si>
+    <t>Ingresar  la ciudad &lt;ciudad1&gt; en el campo ciudad</t>
+  </si>
+  <si>
+    <t>se muestra un listado de ciudades mientras ingreso la ciudad</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;ciudad1&gt; de el listado</t>
+  </si>
+  <si>
+    <t>Presionar el boton buscar</t>
+  </si>
+  <si>
+    <t>se muestra una tabla con las playas de esa ciudad</t>
+  </si>
+  <si>
+    <t>Ingresar "CPA_Playa1" en el campo de busqueda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -258,12 +273,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -291,6 +326,12 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -382,6 +423,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -416,6 +458,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,44 +634,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26.25" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26.25" thickBot="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32.25" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -636,16 +679,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="11">
         <f>MAX(Pasos!A:A)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -653,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -671,20 +714,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -695,27 +738,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" thickBot="1">
+    <row r="2" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -728,21 +779,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -756,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1">
+    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -768,39 +819,66 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="25.5">
+    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -811,14 +889,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -826,7 +904,7 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -843,7 +921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25">
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -854,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>20</v>
